--- a/Data/MainFile.xlsx
+++ b/Data/MainFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\Scripts\WHATIF_HESS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="884" documentId="10_ncr:100000_{6374FDA4-E89E-47EF-B2FE-3D27103A14A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FB89146D-0307-4698-8881-04EC6F28FFB3}"/>
+  <xr:revisionPtr revIDLastSave="887" documentId="10_ncr:100000_{6374FDA4-E89E-47EF-B2FE-3D27103A14A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{222FD726-8E1B-405C-965D-D89B0171A4EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="3110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="3110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -1028,6 +1028,99 @@
     <t>sGenTech</t>
   </si>
   <si>
+    <t>Lakes</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Load capacity</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Initial time step (1) = Initial storage conditions or cyclic model (0) = Last time step connects back to first</t>
+  </si>
+  <si>
+    <t>(1) Activate e-flow requierments, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Activate Lakes, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Activate groundwater aquifers, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Activate water transfer schemes, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Activates the agriculture module, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Linearized yield water response using FAO 33</t>
+  </si>
+  <si>
+    <t>(1) the culture choice is for the whole optimization period, (0) the culture choice is variable per year</t>
+  </si>
+  <si>
+    <t>(1) represent demands, trades …, (0) Crop production is valuated at farm zones</t>
+  </si>
+  <si>
+    <t>Share of demand that is elastic (-)</t>
+  </si>
+  <si>
+    <t>(1) Crop market that have an exogenous crop production capacity, trade like any other crop markets, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Enables to define an Elasticity of crop demand (will generate step demand function), (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Food security constraints, forcing a minimum demand satisfaction (might be impossible if no external market is represented), (2) food sufficiency constraint - under development</t>
+  </si>
+  <si>
+    <t>(1) Energy production module, (0) Off</t>
+  </si>
+  <si>
+    <t>(1) Represent other power plants</t>
+  </si>
+  <si>
+    <t>(1) Fuel consumption of Other power plant or Power technologies</t>
+  </si>
+  <si>
+    <t>(1) Ramping constraint of power plants and power technologies - under development</t>
+  </si>
+  <si>
+    <t>(1) Power capacity expansion model</t>
+  </si>
+  <si>
+    <t>(1) represent demands, trades …, (0) Energy production is valuated at hydropower plant</t>
+  </si>
+  <si>
+    <t>(1) Transmission lines between power markets</t>
+  </si>
+  <si>
+    <t>(1) Consider different load segments of the power demand (peak/base, day/night)</t>
+  </si>
+  <si>
+    <t>(1) Consider that some Opp or Power technologies have a limited capacity during some load segments (e.g. : Solar during night)</t>
+  </si>
+  <si>
+    <t>Investment planning module - under development</t>
+  </si>
+  <si>
+    <t>Temporal40</t>
+  </si>
+  <si>
+    <t>Years40</t>
+  </si>
+  <si>
+    <t>(1) Enables the model to add water in the water balances at a very high cost (DEBUGCOST defined in script) -WARNING : breaks shadowprices</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1044,119 +1137,8 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Constraints the culture choice by a maximum area per farming zone and per culture, </t>
+      <t xml:space="preserve"> Constraints the culture choice by a maximum area per farming zone and per culture,  </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>: the cultivated area is constrained to this area and is not anymore a DV WARNING: it can lead to negative yields if combined with the linear yield water response option</t>
-    </r>
-  </si>
-  <si>
-    <t>Lakes</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>Load capacity</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>Initial time step (1) = Initial storage conditions or cyclic model (0) = Last time step connects back to first</t>
-  </si>
-  <si>
-    <t>(1) Activate e-flow requierments, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate Lakes, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate groundwater aquifers, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate water transfer schemes, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activates the agriculture module, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Linearized yield water response using FAO 33</t>
-  </si>
-  <si>
-    <t>(1) the culture choice is for the whole optimization period, (0) the culture choice is variable per year</t>
-  </si>
-  <si>
-    <t>(1) represent demands, trades …, (0) Crop production is valuated at farm zones</t>
-  </si>
-  <si>
-    <t>Share of demand that is elastic (-)</t>
-  </si>
-  <si>
-    <t>(1) Crop market that have an exogenous crop production capacity, trade like any other crop markets, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Enables to define an Elasticity of crop demand (will generate step demand function), (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Food security constraints, forcing a minimum demand satisfaction (might be impossible if no external market is represented), (2) food sufficiency constraint - under development</t>
-  </si>
-  <si>
-    <t>(1) Energy production module, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Represent other power plants</t>
-  </si>
-  <si>
-    <t>(1) Fuel consumption of Other power plant or Power technologies</t>
-  </si>
-  <si>
-    <t>(1) Ramping constraint of power plants and power technologies - under development</t>
-  </si>
-  <si>
-    <t>(1) Power capacity expansion model</t>
-  </si>
-  <si>
-    <t>(1) represent demands, trades …, (0) Energy production is valuated at hydropower plant</t>
-  </si>
-  <si>
-    <t>(1) Transmission lines between power markets</t>
-  </si>
-  <si>
-    <t>(1) Consider different load segments of the power demand (peak/base, day/night)</t>
-  </si>
-  <si>
-    <t>(1) Consider that some Opp or Power technologies have a limited capacity during some load segments (e.g. : Solar during night)</t>
-  </si>
-  <si>
-    <t>Investment planning module - under development</t>
-  </si>
-  <si>
-    <t>Temporal40</t>
-  </si>
-  <si>
-    <t>Years40</t>
-  </si>
-  <si>
-    <t>(1) Enables the model to add water in the water balances at a very high cost (DEBUGCOST defined in script) -WARNING : breaks shadowprices</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2011,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2078,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" s="38"/>
     </row>
@@ -2158,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E8" s="38"/>
     </row>
@@ -2171,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -2256,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="37"/>
     </row>
@@ -2276,13 +2258,13 @@
     <row r="18" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C18" s="37">
         <v>0</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="37"/>
     </row>
@@ -2295,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E19" s="37"/>
     </row>
@@ -2308,20 +2290,20 @@
         <v>0</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" s="37">
         <v>1</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -2378,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E26" s="37"/>
     </row>
@@ -2393,7 +2375,7 @@
       <c r="D27" s="48"/>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="1:5" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="42" t="s">
         <v>114</v>
@@ -2402,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="E28" s="37"/>
     </row>
@@ -2415,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E29" s="37"/>
     </row>
@@ -2428,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E30" s="37"/>
     </row>
@@ -2441,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E31" s="37"/>
     </row>
@@ -2454,7 +2436,7 @@
         <v>0.05</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E32" s="37"/>
     </row>
@@ -2480,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="37"/>
     </row>
@@ -2490,7 +2472,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="37"/>
@@ -2504,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E36" s="37"/>
     </row>
@@ -2517,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E37" s="37"/>
     </row>
@@ -2541,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" s="37"/>
     </row>
@@ -2554,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E40" s="37"/>
     </row>
@@ -2567,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E41" s="37"/>
     </row>
@@ -2580,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E42" s="37"/>
     </row>
@@ -2593,46 +2575,46 @@
         <v>1</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="37">
         <v>1</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
       <c r="B45" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="37">
         <v>1</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="101"/>
       <c r="B46" s="102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="53">
         <v>1</v>
       </c>
       <c r="D46" s="103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E46" s="37"/>
     </row>
@@ -2647,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="23" x14ac:dyDescent="0.25">
@@ -2671,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="23" x14ac:dyDescent="0.25">
@@ -2767,13 +2749,13 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
       <c r="B58" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C58" s="37">
         <v>0</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -2798,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C61" s="37">
         <v>1</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,7 +2857,7 @@
       </c>
       <c r="D67" s="48"/>
     </row>
-    <row r="68" spans="1:4" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
       <c r="B68" s="42" t="s">
         <v>114</v>
@@ -2884,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -2896,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -2908,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -2920,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2914,7 @@
         <v>0.05</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -3024,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -3036,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -3060,43 +3042,43 @@
         <v>1</v>
       </c>
       <c r="D83" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
       <c r="B84" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C84" s="37">
         <v>1</v>
       </c>
       <c r="D84" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C85" s="37">
         <v>1</v>
       </c>
       <c r="D85" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
       <c r="B86" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C86" s="37">
         <v>1</v>
       </c>
       <c r="D86" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
